--- a/xlsx/凌志LS_intext.xlsx
+++ b/xlsx/凌志LS_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>凌志LS</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>豐田汽車公司</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_凌志LS</t>
+    <t>丰田汽车公司</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_凌志LS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%8E%9F%E5%B8%82</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%88%E3%83%A8%E3%82%BF%E3%83%BB%E3%82%BB%E3%83%AB%E3%82%B7%E3%82%AA</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
+    <t>丰田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%8A%B7</t>
   </si>
   <si>
-    <t>外銷</t>
+    <t>外销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -143,9 +143,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>丰田汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%96%A9%E6%96%AFHS</t>
   </si>
   <si>
-    <t>雷克薩斯HS</t>
+    <t>雷克萨斯HS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFES</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97RX</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFIS_F</t>
@@ -1222,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1248,10 +1245,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1277,10 +1274,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1306,10 +1303,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1335,10 +1332,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1364,10 +1361,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1393,10 +1390,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1422,10 +1419,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1451,10 +1448,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1480,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -1509,10 +1506,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1538,10 +1535,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1567,10 +1564,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
         <v>49</v>
-      </c>
-      <c r="F34" t="s">
-        <v>50</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1596,10 +1593,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1625,10 +1622,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1654,10 +1651,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1683,10 +1680,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1712,10 +1709,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1741,10 +1738,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
